--- a/SchedulingData/static4/pso/scheduling1_15.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_15.xlsx
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>71.12</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>24.568</v>
+        <v>25.644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>74.90000000000001</v>
+        <v>100.26</v>
       </c>
       <c r="E3" t="n">
-        <v>27.16</v>
+        <v>24.624</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>55.46</v>
+        <v>66.44</v>
       </c>
       <c r="E4" t="n">
-        <v>25.644</v>
+        <v>26.016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>48.84</v>
+        <v>42.7</v>
       </c>
       <c r="E5" t="n">
-        <v>27.296</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>82.09999999999999</v>
+        <v>76.34</v>
       </c>
       <c r="E6" t="n">
-        <v>24.96</v>
+        <v>26.496</v>
       </c>
     </row>
     <row r="7">
@@ -561,112 +561,112 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55.46</v>
+        <v>42.7</v>
       </c>
       <c r="D7" t="n">
-        <v>108.06</v>
+        <v>123.32</v>
       </c>
       <c r="E7" t="n">
-        <v>22.524</v>
+        <v>22.488</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>82.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>138.34</v>
+        <v>43.1</v>
       </c>
       <c r="E8" t="n">
-        <v>20.956</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48.84</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>109.88</v>
+        <v>147.78</v>
       </c>
       <c r="E9" t="n">
-        <v>23.312</v>
+        <v>21.992</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>138.34</v>
+        <v>147.78</v>
       </c>
       <c r="D10" t="n">
-        <v>189.58</v>
+        <v>199.38</v>
       </c>
       <c r="E10" t="n">
-        <v>17.452</v>
+        <v>18.472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>71.12</v>
+        <v>66.44</v>
       </c>
       <c r="D11" t="n">
-        <v>113.62</v>
+        <v>105.96</v>
       </c>
       <c r="E11" t="n">
-        <v>21.448</v>
+        <v>23.684</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>74.90000000000001</v>
+        <v>123.32</v>
       </c>
       <c r="D12" t="n">
-        <v>123.42</v>
+        <v>187.82</v>
       </c>
       <c r="E12" t="n">
-        <v>22.948</v>
+        <v>19.648</v>
       </c>
     </row>
     <row r="13">
@@ -675,283 +675,283 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>123.42</v>
+        <v>76.34</v>
       </c>
       <c r="D13" t="n">
-        <v>176.14</v>
+        <v>133.54</v>
       </c>
       <c r="E13" t="n">
-        <v>19.296</v>
+        <v>23.376</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>108.06</v>
+        <v>100.26</v>
       </c>
       <c r="D14" t="n">
-        <v>170.56</v>
+        <v>146.32</v>
       </c>
       <c r="E14" t="n">
-        <v>19.404</v>
+        <v>22.128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>176.14</v>
+        <v>105.96</v>
       </c>
       <c r="D15" t="n">
-        <v>217.34</v>
+        <v>172.3</v>
       </c>
       <c r="E15" t="n">
-        <v>15.816</v>
+        <v>19.68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>170.56</v>
+        <v>43.1</v>
       </c>
       <c r="D16" t="n">
-        <v>233.52</v>
+        <v>109.7</v>
       </c>
       <c r="E16" t="n">
-        <v>15.708</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>189.58</v>
+        <v>199.38</v>
       </c>
       <c r="D17" t="n">
-        <v>239</v>
+        <v>272.32</v>
       </c>
       <c r="E17" t="n">
-        <v>14.62</v>
+        <v>15.768</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>109.88</v>
+        <v>133.54</v>
       </c>
       <c r="D18" t="n">
-        <v>151.78</v>
+        <v>211.8</v>
       </c>
       <c r="E18" t="n">
-        <v>21.232</v>
+        <v>19.68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>187.82</v>
       </c>
       <c r="D19" t="n">
-        <v>51.6</v>
+        <v>262.42</v>
       </c>
       <c r="E19" t="n">
-        <v>26.04</v>
+        <v>14.328</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>233.52</v>
+        <v>272.32</v>
       </c>
       <c r="D20" t="n">
-        <v>289.82</v>
+        <v>334.72</v>
       </c>
       <c r="E20" t="n">
-        <v>12.188</v>
+        <v>12.648</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>51.6</v>
+        <v>211.8</v>
       </c>
       <c r="D21" t="n">
-        <v>107.44</v>
+        <v>271.52</v>
       </c>
       <c r="E21" t="n">
-        <v>23.076</v>
+        <v>16.848</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>151.78</v>
+        <v>271.52</v>
       </c>
       <c r="D22" t="n">
-        <v>245.98</v>
+        <v>319.02</v>
       </c>
       <c r="E22" t="n">
-        <v>15.912</v>
+        <v>14.208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>107.44</v>
+        <v>172.3</v>
       </c>
       <c r="D23" t="n">
-        <v>207.3</v>
+        <v>219.5</v>
       </c>
       <c r="E23" t="n">
-        <v>17.7</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>207.3</v>
+        <v>146.32</v>
       </c>
       <c r="D24" t="n">
-        <v>261.22</v>
+        <v>214.62</v>
       </c>
       <c r="E24" t="n">
-        <v>14.928</v>
+        <v>16.428</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>113.62</v>
+        <v>262.42</v>
       </c>
       <c r="D25" t="n">
-        <v>186.32</v>
+        <v>304.52</v>
       </c>
       <c r="E25" t="n">
-        <v>17.808</v>
+        <v>11.248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>217.34</v>
+        <v>214.62</v>
       </c>
       <c r="D26" t="n">
-        <v>288.2</v>
+        <v>287.32</v>
       </c>
       <c r="E26" t="n">
-        <v>13.32</v>
+        <v>12.788</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>261.22</v>
+        <v>109.7</v>
       </c>
       <c r="D27" t="n">
-        <v>311.74</v>
+        <v>175.5</v>
       </c>
       <c r="E27" t="n">
-        <v>11.496</v>
+        <v>18.36</v>
       </c>
     </row>
     <row r="28">
@@ -960,36 +960,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>239</v>
+        <v>219.5</v>
       </c>
       <c r="D28" t="n">
-        <v>286</v>
+        <v>273.02</v>
       </c>
       <c r="E28" t="n">
-        <v>11.54</v>
+        <v>11.388</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>186.32</v>
+        <v>273.02</v>
       </c>
       <c r="D29" t="n">
-        <v>279.62</v>
+        <v>331.22</v>
       </c>
       <c r="E29" t="n">
-        <v>12.108</v>
+        <v>8.667999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -998,74 +998,74 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>279.62</v>
+        <v>175.5</v>
       </c>
       <c r="D30" t="n">
-        <v>323.22</v>
+        <v>229.22</v>
       </c>
       <c r="E30" t="n">
-        <v>9.388</v>
+        <v>15.588</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>286</v>
+        <v>287.32</v>
       </c>
       <c r="D31" t="n">
-        <v>340.72</v>
+        <v>332.94</v>
       </c>
       <c r="E31" t="n">
-        <v>9.208</v>
+        <v>9.356</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>245.98</v>
+        <v>229.22</v>
       </c>
       <c r="D32" t="n">
-        <v>288.58</v>
+        <v>289.92</v>
       </c>
       <c r="E32" t="n">
-        <v>13.272</v>
+        <v>11.628</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>288.58</v>
+        <v>289.92</v>
       </c>
       <c r="D33" t="n">
-        <v>355.58</v>
+        <v>345.76</v>
       </c>
       <c r="E33" t="n">
-        <v>9.192</v>
+        <v>8.664</v>
       </c>
     </row>
   </sheetData>
